--- a/data-raw/tss_rivalries/tss_rivalries.xlsx
+++ b/data-raw/tss_rivalries/tss_rivalries.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="280">
   <si>
     <t xml:space="preserve">rivalry</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Austria (Hungary)-France</t>
   </si>
   <si>
-    <t xml:space="preserve">Britain-France</t>
+    <t xml:space="preserve">Britain-France 1</t>
   </si>
   <si>
     <t xml:space="preserve">P1494</t>
@@ -103,6 +103,9 @@
     <t xml:space="preserve">Austria-Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">Britain-France 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prussia-Russia</t>
   </si>
   <si>
@@ -127,7 +130,7 @@
     <t xml:space="preserve">China-Russia</t>
   </si>
   <si>
-    <t xml:space="preserve">Thailand-Vietnam</t>
+    <t xml:space="preserve">Thailand-Vietnam 1</t>
   </si>
   <si>
     <t xml:space="preserve">Iran-Russia</t>
@@ -418,6 +421,9 @@
     <t xml:space="preserve">Indonesia-Netherlands</t>
   </si>
   <si>
+    <t xml:space="preserve">Thailand-Vietnam 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Laos-Vietnam</t>
   </si>
   <si>
@@ -631,7 +637,7 @@
     <t xml:space="preserve">Bahrain-Qatar 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Libya-Uganda</t>
+    <t xml:space="preserve">Libya-Uganda 1</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya-Uganda</t>
@@ -655,6 +661,9 @@
     <t xml:space="preserve">Kenya-Sudan</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia-Yemen 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Armenia-Azerbaijan</t>
   </si>
   <si>
@@ -749,6 +758,9 @@
   </si>
   <si>
     <t xml:space="preserve">Libya-Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya-Uganda 2</t>
   </si>
   <si>
     <t xml:space="preserve">Burundi-Libya</t>
@@ -862,6 +874,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -950,9 +963,9 @@
   <dimension ref="A1:J265"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I267" activeCellId="0" sqref="I267"/>
+      <selection pane="bottomLeft" activeCell="E200" activeCellId="0" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1276,7 +1289,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1731</v>
@@ -1296,7 +1309,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1744</v>
@@ -1313,7 +1326,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1740</v>
@@ -1336,7 +1349,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1756</v>
@@ -1356,7 +1369,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1768</v>
@@ -1373,7 +1386,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1778</v>
@@ -1390,10 +1403,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1937</v>
@@ -1404,10 +1417,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1949</v>
@@ -1421,10 +1434,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1884</v>
@@ -1441,10 +1454,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1828</v>
@@ -1455,10 +1468,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1826</v>
@@ -1478,10 +1491,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1819</v>
@@ -1492,10 +1505,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1932</v>
@@ -1506,10 +1519,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1904</v>
@@ -1526,7 +1539,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1817</v>
@@ -1546,7 +1559,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1821</v>
@@ -1566,7 +1579,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1825</v>
@@ -1583,7 +1596,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1827</v>
@@ -1597,7 +1610,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1827</v>
@@ -1620,7 +1633,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1828</v>
@@ -1640,7 +1653,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1830</v>
@@ -1654,7 +1667,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1830</v>
@@ -1671,7 +1684,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1830</v>
@@ -1685,13 +1698,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1831</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1</v>
@@ -1705,7 +1718,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1832</v>
@@ -1722,13 +1735,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1836</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1</v>
@@ -1739,7 +1752,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1839</v>
@@ -1756,7 +1769,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1840</v>
@@ -1779,7 +1792,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1842</v>
@@ -1799,7 +1812,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1842</v>
@@ -1816,7 +1829,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1842</v>
@@ -1836,7 +1849,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1843</v>
@@ -1856,7 +1869,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1844</v>
@@ -1876,7 +1889,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1845</v>
@@ -1893,7 +1906,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1847</v>
@@ -1913,7 +1926,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1850</v>
@@ -1933,7 +1946,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1855</v>
@@ -1950,7 +1963,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>1856</v>
@@ -1967,7 +1980,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>1858</v>
@@ -1984,7 +1997,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>1860</v>
@@ -2004,7 +2017,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1862</v>
@@ -2024,7 +2037,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1868</v>
@@ -2044,7 +2057,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1873</v>
@@ -2064,7 +2077,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>1878</v>
@@ -2081,7 +2094,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1878</v>
@@ -2095,7 +2108,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1878</v>
@@ -2109,7 +2122,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1878</v>
@@ -2123,7 +2136,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1878</v>
@@ -2137,7 +2150,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>1879</v>
@@ -2154,7 +2167,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>1881</v>
@@ -2171,7 +2184,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>1882</v>
@@ -2188,7 +2201,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>1884</v>
@@ -2203,12 +2216,12 @@
         <v>1</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>1887</v>
@@ -2225,7 +2238,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1889</v>
@@ -2239,7 +2252,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>1890</v>
@@ -2259,7 +2272,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>1894</v>
@@ -2276,7 +2289,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1896</v>
@@ -2296,7 +2309,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1897</v>
@@ -2310,7 +2323,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1898</v>
@@ -2330,7 +2343,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1903</v>
@@ -2353,7 +2366,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1913</v>
@@ -2370,7 +2383,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1918</v>
@@ -2387,7 +2400,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1918</v>
@@ -2404,7 +2417,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>1918</v>
@@ -2418,7 +2431,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1918</v>
@@ -2432,7 +2445,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>1918</v>
@@ -2446,7 +2459,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>1918</v>
@@ -2460,7 +2473,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>1918</v>
@@ -2480,7 +2493,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1919</v>
@@ -2497,7 +2510,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>1920</v>
@@ -2511,7 +2524,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>1920</v>
@@ -2525,7 +2538,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>1921</v>
@@ -2539,7 +2552,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>1932</v>
@@ -2559,7 +2572,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>1932</v>
@@ -2576,7 +2589,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>1932</v>
@@ -2593,7 +2606,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>1931</v>
@@ -2610,7 +2623,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1933</v>
@@ -2627,7 +2640,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>1933</v>
@@ -2647,7 +2660,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>1933</v>
@@ -2667,7 +2680,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>1934</v>
@@ -2684,7 +2697,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>1936</v>
@@ -2701,7 +2714,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>1940</v>
@@ -2718,7 +2731,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>1943</v>
@@ -2732,7 +2745,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>1945</v>
@@ -2752,7 +2765,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1946</v>
@@ -2766,13 +2779,13 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>1946</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>1</v>
@@ -2786,7 +2799,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>1946</v>
@@ -2803,7 +2816,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>1946</v>
@@ -2820,7 +2833,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>1946</v>
@@ -2837,13 +2850,13 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>1947</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>1</v>
@@ -2854,13 +2867,13 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>1947</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>1</v>
@@ -2877,7 +2890,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>1948</v>
@@ -2894,13 +2907,13 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>1948</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>1</v>
@@ -2917,13 +2930,13 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>1948</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>1</v>
@@ -2937,13 +2950,13 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>1948</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>1</v>
@@ -2951,7 +2964,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>1948</v>
@@ -2968,13 +2981,13 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>1948</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>1</v>
@@ -2988,13 +3001,13 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>1948</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>1</v>
@@ -3011,7 +3024,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>1948</v>
@@ -3031,7 +3044,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>1949</v>
@@ -3051,7 +3064,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>1949</v>
@@ -3071,13 +3084,13 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>1949</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
@@ -3094,7 +3107,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>1951</v>
@@ -3111,7 +3124,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>1954</v>
@@ -3131,7 +3144,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>1954</v>
@@ -3154,7 +3167,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>1954</v>
@@ -3177,7 +3190,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>1955</v>
@@ -3194,13 +3207,13 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>1955</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>1</v>
@@ -3214,7 +3227,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>1956</v>
@@ -3231,7 +3244,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>1956</v>
@@ -3248,7 +3261,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>1957</v>
@@ -3265,7 +3278,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>1958</v>
@@ -3285,7 +3298,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>1958</v>
@@ -3305,13 +3318,13 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>1959</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>1</v>
@@ -3325,7 +3338,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>1960</v>
@@ -3345,7 +3358,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>1960</v>
@@ -3365,7 +3378,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>1960</v>
@@ -3388,7 +3401,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>1960</v>
@@ -3406,12 +3419,12 @@
         <v>1</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>1960</v>
@@ -3431,7 +3444,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>1960</v>
@@ -3451,13 +3464,13 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>1961</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1</v>
@@ -3468,7 +3481,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>1961</v>
@@ -3485,7 +3498,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>1961</v>
@@ -3499,7 +3512,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>1962</v>
@@ -3513,7 +3526,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>1962</v>
@@ -3527,7 +3540,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>1962</v>
@@ -3553,13 +3566,13 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>1962</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>1</v>
@@ -3579,7 +3592,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>1962</v>
@@ -3596,7 +3609,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>1963</v>
@@ -3616,7 +3629,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>1963</v>
@@ -3633,7 +3646,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>1964</v>
@@ -3653,13 +3666,13 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>1964</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G149" s="0" t="n">
         <v>1</v>
@@ -3670,7 +3683,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>1964</v>
@@ -3690,7 +3703,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>1964</v>
@@ -3704,7 +3717,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>1965</v>
@@ -3721,13 +3734,13 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>1965</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>1</v>
@@ -3741,13 +3754,13 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>1965</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1</v>
@@ -3758,13 +3771,13 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>1965</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>1</v>
@@ -3778,7 +3791,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>1965</v>
@@ -3795,7 +3808,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>1966</v>
@@ -3815,13 +3828,13 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>1966</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1</v>
@@ -3835,7 +3848,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>1967</v>
@@ -3858,7 +3871,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>1967</v>
@@ -3878,7 +3891,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>1968</v>
@@ -3892,7 +3905,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>1970</v>
@@ -3913,12 +3926,12 @@
         <v>1</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>1971</v>
@@ -3932,13 +3945,13 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>1971</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>1</v>
@@ -3949,7 +3962,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>1971</v>
@@ -3972,13 +3985,13 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>1972</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>1</v>
@@ -3989,7 +4002,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>1973</v>
@@ -4007,12 +4020,12 @@
         <v>1</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>1973</v>
@@ -4032,7 +4045,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>1973</v>
@@ -4052,7 +4065,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>1975</v>
@@ -4069,7 +4082,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>1975</v>
@@ -4089,7 +4102,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>1975</v>
@@ -4109,7 +4122,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>1975</v>
@@ -4129,7 +4142,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>1975</v>
@@ -4146,7 +4159,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>1976</v>
@@ -4163,7 +4176,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>1976</v>
@@ -4180,7 +4193,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>1979</v>
@@ -4197,13 +4210,13 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>1979</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>1</v>
@@ -4214,13 +4227,13 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>1979</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>1</v>
@@ -4231,13 +4244,13 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>1979</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>1</v>
@@ -4254,7 +4267,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>1980</v>
@@ -4268,7 +4281,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>1980</v>
@@ -4285,7 +4298,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>1980</v>
@@ -4302,7 +4315,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>1980</v>
@@ -4319,7 +4332,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>1981</v>
@@ -4336,13 +4349,13 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>1982</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>1</v>
@@ -4353,7 +4366,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>1983</v>
@@ -4367,7 +4380,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>1983</v>
@@ -4381,7 +4394,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>1986</v>
@@ -4395,7 +4408,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>1986</v>
@@ -4415,7 +4428,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>1987</v>
@@ -4429,7 +4442,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>1987</v>
@@ -4443,7 +4456,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>1989</v>
@@ -4460,7 +4473,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>1989</v>
@@ -4477,7 +4490,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>1989</v>
@@ -4491,7 +4504,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>1989</v>
@@ -4505,7 +4518,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>1989</v>
@@ -4519,7 +4532,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>1989</v>
@@ -4539,7 +4552,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>1990</v>
@@ -4559,13 +4572,13 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>1991</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>1</v>
@@ -4579,13 +4592,13 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>1991</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>1</v>
@@ -4599,7 +4612,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>1991</v>
@@ -4619,7 +4632,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>1991</v>
@@ -4633,7 +4646,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>1991</v>
@@ -4650,13 +4663,13 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>1992</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>1</v>
@@ -4667,13 +4680,13 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>1992</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>1</v>
@@ -4687,13 +4700,13 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>1993</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F207" s="0" t="n">
         <v>1</v>
@@ -4704,7 +4717,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>1994</v>
@@ -4718,13 +4731,13 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>1995</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>1</v>
@@ -4738,7 +4751,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>1996</v>
@@ -4752,7 +4765,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>1996</v>
@@ -4772,13 +4785,13 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>1996</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>1</v>
@@ -4789,7 +4802,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>1996</v>
@@ -4809,13 +4822,13 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>1996</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>1</v>
@@ -4829,13 +4842,13 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>1996</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>1</v>
@@ -4849,7 +4862,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>1996</v>
@@ -4863,7 +4876,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>1996</v>
@@ -4877,13 +4890,13 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>1996</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G218" s="1" t="n">
         <v>1</v>
@@ -4891,7 +4904,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>1998</v>
@@ -4905,7 +4918,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>1998</v>
@@ -4919,7 +4932,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>1998</v>
@@ -4933,7 +4946,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>1998</v>
@@ -4947,7 +4960,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>1998</v>
@@ -4961,7 +4974,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>1998</v>
@@ -4975,7 +4988,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>1998</v>
@@ -4989,7 +5002,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>1998</v>
@@ -5003,7 +5016,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>1998</v>
@@ -5017,7 +5030,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>1998</v>
@@ -5031,7 +5044,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>1998</v>
@@ -5045,7 +5058,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>1998</v>
@@ -5059,7 +5072,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>1998</v>
@@ -5073,7 +5086,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>1998</v>
@@ -5087,7 +5100,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>1998</v>
@@ -5101,7 +5114,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>1998</v>
@@ -5115,7 +5128,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>1998</v>
@@ -5129,7 +5142,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>1998</v>
@@ -5143,7 +5156,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>1998</v>
@@ -5160,7 +5173,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>1999</v>
@@ -5174,13 +5187,13 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>1999</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G239" s="0" t="n">
         <v>1</v>
@@ -5188,7 +5201,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>2000</v>
@@ -5202,7 +5215,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>2002</v>
@@ -5219,13 +5232,13 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>2003</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G242" s="0" t="n">
         <v>1</v>
@@ -5236,7 +5249,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>2004</v>
@@ -5250,7 +5263,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>2005</v>
@@ -5270,13 +5283,13 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E245" s="0" t="n">
         <v>1</v>
@@ -5287,7 +5300,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>2006</v>
@@ -5301,13 +5314,13 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>2007</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D247" s="0" t="n">
         <v>1</v>
@@ -5318,13 +5331,13 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E248" s="0" t="n">
         <v>1</v>
@@ -5335,7 +5348,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>2011</v>
@@ -5349,7 +5362,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>2011</v>
@@ -5363,13 +5376,13 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G251" s="0" t="n">
         <v>1</v>
@@ -5377,13 +5390,13 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G252" s="0" t="n">
         <v>1</v>
@@ -5391,13 +5404,13 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G253" s="0" t="n">
         <v>1</v>
@@ -5405,13 +5418,13 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G254" s="0" t="n">
         <v>1</v>
@@ -5419,13 +5432,13 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D255" s="0" t="n">
         <v>1</v>
@@ -5433,13 +5446,13 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F256" s="0" t="n">
         <v>1</v>
@@ -5450,13 +5463,13 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E257" s="0" t="n">
         <v>1</v>
@@ -5464,13 +5477,13 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E258" s="0" t="n">
         <v>1</v>
@@ -5481,13 +5494,13 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F259" s="0" t="n">
         <v>1</v>
@@ -5495,13 +5508,13 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D260" s="0" t="n">
         <v>1</v>
@@ -5512,13 +5525,13 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E261" s="0" t="n">
         <v>1</v>
@@ -5532,13 +5545,13 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D262" s="0" t="n">
         <v>1</v>
@@ -5549,13 +5562,13 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E263" s="0" t="n">
         <v>1</v>
@@ -5569,13 +5582,13 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E264" s="0" t="n">
         <v>1</v>
@@ -5589,13 +5602,13 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G265" s="0" t="n">
         <v>1</v>
